--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E70A38-43DF-49D8-AC56-6E14A4FEACFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F09B8-BFE1-43B1-88E2-4A31BC7CF29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Cut length</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Max strain (%)</t>
+  </si>
+  <si>
+    <t>Relative strain</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,9 +664,10 @@
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -694,8 +698,11 @@
       <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>13.7</v>
       </c>
@@ -725,15 +732,19 @@
         <v>16.666666666666664</v>
       </c>
       <c r="I2" s="1">
-        <f>(B2-D2)/B2</f>
+        <f t="shared" ref="I2:I20" si="0">(B2-D2)/B2</f>
         <v>0</v>
       </c>
       <c r="J2" s="6">
         <f>I2*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="24">
+        <f>J2/H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>13.7</v>
       </c>
@@ -747,31 +758,35 @@
         <v>11.6</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E20" si="0">B3-D3</f>
+        <f t="shared" ref="E3:E20" si="1">B3-D3</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F20" si="1">D3/B3</f>
+        <f t="shared" ref="F3:F20" si="2">D3/B3</f>
         <v>0.96666666666666667</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G20" si="2">(B3-C3)/B3</f>
+        <f t="shared" ref="G3:G20" si="3">(B3-C3)/B3</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" ref="H3:H5" si="3">G3*100</f>
+        <f t="shared" ref="H3:H5" si="4">G3*100</f>
         <v>16.666666666666664</v>
       </c>
       <c r="I3" s="1">
-        <f>(B3-D3)/B3</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333361E-2</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J20" si="4">I3*100</f>
+        <f t="shared" ref="J3:J20" si="5">I3*100</f>
         <v>3.3333333333333361</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="25">
+        <f t="shared" ref="K3:K20" si="6">J3/H3</f>
+        <v>0.20000000000000021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>13.7</v>
       </c>
@@ -785,31 +800,35 @@
         <v>11.2</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H4" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="I4" s="1">
-        <f>(B4-D4)/B4</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666721E-2</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666666723</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="25">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>13.7</v>
       </c>
@@ -823,31 +842,35 @@
         <v>10.8</v>
       </c>
       <c r="E5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="H5" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="I5" s="1">
-        <f>(B5-D5)/B5</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999936E-2</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999929</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="26">
+        <f t="shared" si="6"/>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>23.7</v>
       </c>
@@ -861,15 +884,15 @@
         <v>22</v>
       </c>
       <c r="E6" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="H6" s="25">
@@ -877,15 +900,19 @@
         <v>15.909090909090908</v>
       </c>
       <c r="I6" s="5">
-        <f>(B6-D6)/B6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23.7</v>
       </c>
@@ -899,15 +926,15 @@
         <v>20.5</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93181818181818177</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="H7" s="25">
@@ -915,15 +942,19 @@
         <v>15.909090909090908</v>
       </c>
       <c r="I7" s="1">
-        <f>(B7-D7)/B7</f>
+        <f t="shared" si="0"/>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8181818181818175</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="25">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>23.7</v>
       </c>
@@ -937,15 +968,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85909090909090902</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
       <c r="H8" s="25">
@@ -953,15 +984,19 @@
         <v>15.909090909090908</v>
       </c>
       <c r="I8" s="10">
-        <f>(B8-D8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0.14090909090909098</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.090909090909099</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="26">
+        <f t="shared" si="6"/>
+        <v>0.88571428571428623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>27.7</v>
       </c>
@@ -975,31 +1010,35 @@
         <v>25.7</v>
       </c>
       <c r="E9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" ref="H9:H20" si="5">G9*100</f>
+        <f t="shared" ref="H9:H20" si="7">G9*100</f>
         <v>15.175097276264587</v>
       </c>
       <c r="I9" s="5">
-        <f>(B9-D9)/B9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>27.7</v>
       </c>
@@ -1013,31 +1052,35 @@
         <v>25</v>
       </c>
       <c r="E10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97276264591439687</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
       <c r="H10" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
       <c r="I10" s="1">
-        <f>(B10-D10)/B10</f>
+        <f t="shared" si="0"/>
         <v>2.7237354085603085E-2</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7237354085603087</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="25">
+        <f t="shared" si="6"/>
+        <v>0.17948717948717938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>27.7</v>
       </c>
@@ -1051,31 +1094,35 @@
         <v>24.2</v>
       </c>
       <c r="E11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94163424124513617</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
       <c r="H11" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
       <c r="I11" s="1">
-        <f>(B11-D11)/B11</f>
+        <f t="shared" si="0"/>
         <v>5.8365758754863814E-2</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.836575875486381</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="25">
+        <f t="shared" si="6"/>
+        <v>0.38461538461538469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>27.7</v>
       </c>
@@ -1089,31 +1136,35 @@
         <v>22.6</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0999999999999979</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87937743190661488</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
       <c r="I12" s="10">
-        <f>(B12-D12)/B12</f>
+        <f t="shared" si="0"/>
         <v>0.12062256809338513</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.062256809338514</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="25">
+        <f t="shared" si="6"/>
+        <v>0.7948717948717946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>29.7</v>
       </c>
@@ -1127,31 +1178,35 @@
         <v>28.1</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
       <c r="I13" s="1">
-        <f>(B13-D13)/B13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>29.7</v>
       </c>
@@ -1165,31 +1220,35 @@
         <v>26.4</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7000000000000028</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93950177935943047</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
       <c r="H14" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
       <c r="I14" s="1">
-        <f>(B14-D14)/B14</f>
+        <f t="shared" si="0"/>
         <v>6.0498220640569492E-2</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0498220640569489</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="25">
+        <f t="shared" si="6"/>
+        <v>0.36956521739130477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>29.7</v>
       </c>
@@ -1203,31 +1262,35 @@
         <v>25.3</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90035587188612098</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
       <c r="H15" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
       <c r="I15" s="1">
-        <f>(B15-D15)/B15</f>
+        <f t="shared" si="0"/>
         <v>9.964412811387903E-2</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9644128113879038</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="25">
+        <f t="shared" si="6"/>
+        <v>0.60869565217391297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>29.7</v>
       </c>
@@ -1241,31 +1304,35 @@
         <v>24</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1000000000000014</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85409252669039137</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
       <c r="H16" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
       <c r="I16" s="10">
-        <f>(B16-D16)/B16</f>
+        <f t="shared" si="0"/>
         <v>0.14590747330960857</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.590747330960857</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="26">
+        <f t="shared" si="6"/>
+        <v>0.89130434782608681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>30</v>
       </c>
@@ -1279,31 +1346,35 @@
         <v>28.1</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
       <c r="I17" s="1">
-        <f>(B17-D17)/B17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>30</v>
       </c>
@@ -1317,31 +1388,35 @@
         <v>26.9</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95729537366548034</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
       <c r="H18" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
       <c r="I18" s="1">
-        <f>(B18-D18)/B18</f>
+        <f t="shared" si="0"/>
         <v>4.2704626334519671E-2</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2704626334519675</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="25">
+        <f t="shared" si="6"/>
+        <v>0.29268292682926894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>30</v>
       </c>
@@ -1355,31 +1430,35 @@
         <v>25.9</v>
       </c>
       <c r="E19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000028</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9217081850533807</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
       <c r="H19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
       <c r="I19" s="1">
-        <f>(B19-D19)/B19</f>
+        <f t="shared" si="0"/>
         <v>7.8291814946619312E-2</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8291814946619311</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="25">
+        <f t="shared" si="6"/>
+        <v>0.53658536585365901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>30</v>
       </c>
@@ -1393,28 +1472,32 @@
         <v>24.8</v>
       </c>
       <c r="E20" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3000000000000007</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88256227758007111</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
       <c r="I20" s="10">
-        <f>(B20-D20)/B20</f>
+        <f t="shared" si="0"/>
         <v>0.11743772241992885</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.743772241992884</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" si="6"/>
+        <v>0.80487804878048774</v>
       </c>
     </row>
   </sheetData>
@@ -1426,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1588,7 @@
         <v>22.448979591836743</v>
       </c>
       <c r="I2" s="5">
-        <f>(B2-D2)/B2</f>
+        <f t="shared" ref="I2:I18" si="0">(B2-D2)/B2</f>
         <v>0</v>
       </c>
       <c r="J2" s="14">
@@ -1527,27 +1610,27 @@
         <v>8.5</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E18" si="0">B3-D3</f>
+        <f t="shared" ref="E3:E18" si="1">B3-D3</f>
         <v>1.3000000000000007</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F18" si="1">D3/B3</f>
+        <f t="shared" ref="F3:F18" si="2">D3/B3</f>
         <v>0.86734693877551017</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G18" si="2">(B3-C3)/B3</f>
+        <f t="shared" ref="G3:G18" si="3">(B3-C3)/B3</f>
         <v>0.22448979591836743</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" ref="H3:H18" si="3">G3*100</f>
+        <f t="shared" ref="H3:H18" si="4">G3*100</f>
         <v>22.448979591836743</v>
       </c>
       <c r="I3" s="1">
-        <f>(B3-D3)/B3</f>
+        <f t="shared" si="0"/>
         <v>0.13265306122448986</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J18" si="4">I3*100</f>
+        <f t="shared" ref="J3:J18" si="5">I3*100</f>
         <v>13.265306122448987</v>
       </c>
     </row>
@@ -1565,27 +1648,27 @@
         <v>7.8</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79591836734693866</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22448979591836743</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.448979591836743</v>
       </c>
       <c r="I4" s="10">
-        <f>(B4-D4)/B4</f>
+        <f t="shared" si="0"/>
         <v>0.20408163265306131</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.408163265306133</v>
       </c>
     </row>
@@ -1603,27 +1686,27 @@
         <v>12</v>
       </c>
       <c r="E5" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
       <c r="I5" s="5">
-        <f>(B5-D5)/B5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1641,27 +1724,27 @@
         <v>11</v>
       </c>
       <c r="E6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
       <c r="H6" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
       <c r="I6" s="1">
-        <f>(B6-D6)/B6</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
     </row>
@@ -1679,27 +1762,27 @@
         <v>10</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
       <c r="H7" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
       <c r="I7" s="10">
-        <f>(B7-D7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
     </row>
@@ -1717,27 +1800,27 @@
         <v>22.5</v>
       </c>
       <c r="E8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
       <c r="I8" s="5">
-        <f>(B8-D8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1755,27 +1838,27 @@
         <v>21.9</v>
       </c>
       <c r="E9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97333333333333327</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
       <c r="H9" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
       <c r="I9" s="1">
-        <f>(B9-D9)/B9</f>
+        <f t="shared" si="0"/>
         <v>2.6666666666666731E-2</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6666666666666732</v>
       </c>
     </row>
@@ -1793,27 +1876,27 @@
         <v>20.9</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6000000000000014</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92888888888888888</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
       <c r="H10" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
       <c r="I10" s="10">
-        <f>(B10-D10)/B10</f>
+        <f t="shared" si="0"/>
         <v>7.111111111111118E-2</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1111111111111178</v>
       </c>
     </row>
@@ -1831,27 +1914,27 @@
         <v>27.4</v>
       </c>
       <c r="E11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
       <c r="I11" s="5">
-        <f>(B11-D11)/B11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1869,27 +1952,27 @@
         <v>26.1</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2999999999999972</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95255474452554756</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
       <c r="H12" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
       <c r="I12" s="1">
-        <f>(B12-D12)/B12</f>
+        <f t="shared" si="0"/>
         <v>4.7445255474452455E-2</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7445255474452459</v>
       </c>
     </row>
@@ -1907,27 +1990,27 @@
         <v>25.2</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91970802919708028</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
       <c r="H13" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
       <c r="I13" s="1">
-        <f>(B13-D13)/B13</f>
+        <f t="shared" si="0"/>
         <v>8.0291970802919679E-2</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0291970802919685</v>
       </c>
     </row>
@@ -1945,27 +2028,27 @@
         <v>24.1</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2999999999999972</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87956204379562053</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
       <c r="I14" s="1">
-        <f>(B14-D14)/B14</f>
+        <f t="shared" si="0"/>
         <v>0.12043795620437947</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.043795620437947</v>
       </c>
     </row>
@@ -1983,27 +2066,27 @@
         <v>39.799999999999997</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
       <c r="H15" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
       <c r="I15" s="5">
-        <f>(B15-D15)/B15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2021,27 +2104,27 @@
         <v>36.200000000000003</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9095477386934675</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
       <c r="H16" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
       <c r="I16" s="1">
-        <f>(B16-D16)/B16</f>
+        <f t="shared" si="0"/>
         <v>9.0452261306532528E-2</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0452261306532531</v>
       </c>
     </row>
@@ -2059,27 +2142,27 @@
         <v>35.1</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6999999999999957</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88190954773869357</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
       <c r="I17" s="1">
-        <f>(B17-D17)/B17</f>
+        <f t="shared" si="0"/>
         <v>0.11809045226130643</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.809045226130642</v>
       </c>
     </row>
@@ -2097,27 +2180,27 @@
         <v>32.799999999999997</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82412060301507539</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
       <c r="I18" s="10">
-        <f>(B18-D18)/B18</f>
+        <f t="shared" si="0"/>
         <v>0.17587939698492464</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.587939698492463</v>
       </c>
     </row>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F09B8-BFE1-43B1-88E2-4A31BC7CF29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73488F4F-2107-4EB8-ACBD-936F54BAABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Cut length</t>
   </si>
@@ -70,6 +70,36 @@
   </si>
   <si>
     <t>Relative strain</t>
+  </si>
+  <si>
+    <t>BPA ID (10mm)</t>
+  </si>
+  <si>
+    <t>13cm</t>
+  </si>
+  <si>
+    <t>23cm</t>
+  </si>
+  <si>
+    <t>27cm</t>
+  </si>
+  <si>
+    <t>29cm</t>
+  </si>
+  <si>
+    <t>30cm</t>
+  </si>
+  <si>
+    <t>BPA ID (20mm)</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>12cm</t>
+  </si>
+  <si>
+    <t>40cm</t>
   </si>
 </sst>
 </file>
@@ -647,15 +677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
@@ -664,838 +694,856 @@
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
         <v>13.7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>12</v>
       </c>
-      <c r="E2" s="17">
-        <f>B2-D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <f>D2/B2</f>
+      <c r="F2" s="17">
+        <f>C2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2/C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <f>(B2-C2)/B2</f>
+      <c r="H2" s="1">
+        <f>(C2-D2)/C2</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H2" s="24">
-        <f>G2*100</f>
+      <c r="I2" s="24">
+        <f>H2*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I20" si="0">(B2-D2)/B2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <f>I2*100</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
-        <f>J2/H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J20" si="0">(C2-E2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <f>J2*100</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <f>K2/I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>13.7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>11.6</v>
       </c>
-      <c r="E3" s="18">
-        <f t="shared" ref="E3:E20" si="1">B3-D3</f>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F20" si="1">C3-E3</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F20" si="2">D3/B3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G20" si="2">E3/C3</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G20" si="3">(B3-C3)/B3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H20" si="3">(C3-D3)/C3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H3" s="25">
-        <f t="shared" ref="H3:H5" si="4">G3*100</f>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I5" si="4">H3*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>3.3333333333333361E-2</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J20" si="5">I3*100</f>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K20" si="5">J3*100</f>
         <v>3.3333333333333361</v>
       </c>
-      <c r="K3" s="25">
-        <f t="shared" ref="K3:K20" si="6">J3/H3</f>
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L20" si="6">K3/I3</f>
         <v>0.20000000000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>13.7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>11.2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="18">
         <f t="shared" si="1"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="2"/>
         <v>0.93333333333333324</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H4" s="25">
+      <c r="I4" s="25">
         <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>6.6666666666666721E-2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f t="shared" si="5"/>
         <v>6.6666666666666723</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <f t="shared" si="6"/>
         <v>0.40000000000000041</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>13.7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>10.8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="18">
         <f t="shared" si="1"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H5" s="26">
+      <c r="I5" s="26">
         <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>9.9999999999999936E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f t="shared" si="5"/>
         <v>9.9999999999999929</v>
       </c>
-      <c r="K5" s="26">
+      <c r="L5" s="26">
         <f t="shared" si="6"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13">
         <v>23.7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="C6" s="15">
         <v>22</v>
       </c>
-      <c r="C6" s="15">
+      <c r="D6" s="15">
         <v>18.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="15">
         <v>22</v>
       </c>
-      <c r="E6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
-      <c r="H6" s="25">
-        <f>G6*100</f>
+      <c r="I6" s="25">
+        <f>H6*100</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
         <v>23.7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>18.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>20.5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F7" s="20">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>0.93181818181818177</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
-      <c r="H7" s="25">
-        <f>G7*100</f>
+      <c r="I7" s="25">
+        <f>H7*100</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="5"/>
         <v>6.8181818181818175</v>
       </c>
-      <c r="K7" s="25">
+      <c r="L7" s="25">
         <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
         <v>23.7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="C8" s="11">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="11">
         <v>18.5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>18.899999999999999</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>3.1000000000000014</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>0.85909090909090902</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="3"/>
         <v>0.15909090909090909</v>
       </c>
-      <c r="H8" s="25">
-        <f>G8*100</f>
+      <c r="I8" s="25">
+        <f>H8*100</f>
         <v>15.909090909090908</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>0.14090909090909098</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <f t="shared" si="5"/>
         <v>14.090909090909099</v>
       </c>
-      <c r="K8" s="26">
+      <c r="L8" s="26">
         <f t="shared" si="6"/>
         <v>0.88571428571428623</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
         <v>27.7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
         <v>25.7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>21.8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>25.7</v>
       </c>
-      <c r="E9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
-      <c r="H9" s="24">
-        <f t="shared" ref="H9:H20" si="7">G9*100</f>
+      <c r="I9" s="24">
+        <f t="shared" ref="I9:I20" si="7">H9*100</f>
         <v>15.175097276264587</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>27.7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>25.7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>21.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>25</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="20">
         <f t="shared" si="1"/>
         <v>0.69999999999999929</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>0.97276264591439687</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
-      <c r="H10" s="25">
+      <c r="I10" s="25">
         <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>2.7237354085603085E-2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <f t="shared" si="5"/>
         <v>2.7237354085603087</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <f t="shared" si="6"/>
         <v>0.17948717948717938</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>27.7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>25.7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>21.8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>24.2</v>
       </c>
-      <c r="E11" s="20">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>0.94163424124513617</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>5.8365758754863814E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="5"/>
         <v>5.836575875486381</v>
       </c>
-      <c r="K11" s="25">
+      <c r="L11" s="25">
         <f t="shared" si="6"/>
         <v>0.38461538461538469</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>27.7</v>
       </c>
-      <c r="B12" s="10">
+      <c r="C12" s="10">
         <v>25.7</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="10">
         <v>21.8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E12" s="10">
         <v>22.6</v>
       </c>
-      <c r="E12" s="21">
+      <c r="F12" s="21">
         <f t="shared" si="1"/>
         <v>3.0999999999999979</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>0.87937743190661488</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="3"/>
         <v>0.15175097276264587</v>
       </c>
-      <c r="H12" s="26">
+      <c r="I12" s="26">
         <f t="shared" si="7"/>
         <v>15.175097276264587</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>0.12062256809338513</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <f t="shared" si="5"/>
         <v>12.062256809338514</v>
       </c>
-      <c r="K12" s="25">
+      <c r="L12" s="25">
         <f t="shared" si="6"/>
         <v>0.7948717948717946</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
         <v>29.7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>28.1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>23.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>28.1</v>
       </c>
-      <c r="E13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
-      <c r="H13" s="24">
+      <c r="I13" s="24">
         <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>29.7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>28.1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>23.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>26.4</v>
       </c>
-      <c r="E14" s="20">
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>0.93950177935943047</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
-      <c r="H14" s="25">
+      <c r="I14" s="25">
         <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>6.0498220640569492E-2</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f t="shared" si="5"/>
         <v>6.0498220640569489</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="25">
         <f t="shared" si="6"/>
         <v>0.36956521739130477</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>29.7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>28.1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>23.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>25.3</v>
       </c>
-      <c r="E15" s="20">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>0.90035587188612098</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
-      <c r="H15" s="25">
+      <c r="I15" s="25">
         <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>9.964412811387903E-2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <f t="shared" si="5"/>
         <v>9.9644128113879038</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="25">
         <f t="shared" si="6"/>
         <v>0.60869565217391297</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
         <v>29.7</v>
       </c>
-      <c r="B16" s="10">
+      <c r="C16" s="10">
         <v>28.1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D16" s="11">
         <v>23.5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="E16" s="10">
         <v>24</v>
       </c>
-      <c r="E16" s="21">
+      <c r="F16" s="21">
         <f t="shared" si="1"/>
         <v>4.1000000000000014</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>0.85409252669039137</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="3"/>
         <v>0.16370106761565842</v>
       </c>
-      <c r="H16" s="26">
+      <c r="I16" s="26">
         <f t="shared" si="7"/>
         <v>16.370106761565843</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>0.14590747330960857</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <f t="shared" si="5"/>
         <v>14.590747330960857</v>
       </c>
-      <c r="K16" s="26">
+      <c r="L16" s="26">
         <f t="shared" si="6"/>
         <v>0.89130434782608681</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
         <v>30</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>28.1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>24</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>28.1</v>
       </c>
-      <c r="E17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
-      <c r="H17" s="25">
+      <c r="I17" s="25">
         <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>30</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>28.1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>24</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>26.9</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>1.2000000000000028</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>0.95729537366548034</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
-      <c r="H18" s="25">
+      <c r="I18" s="25">
         <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
         <v>4.2704626334519671E-2</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f t="shared" si="5"/>
         <v>4.2704626334519675</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="25">
         <f t="shared" si="6"/>
         <v>0.29268292682926894</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>28.1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>25.9</v>
       </c>
-      <c r="E19" s="20">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>2.2000000000000028</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>0.9217081850533807</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
-      <c r="H19" s="25">
+      <c r="I19" s="25">
         <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
         <v>7.8291814946619312E-2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="5"/>
         <v>7.8291814946619311</v>
       </c>
-      <c r="K19" s="25">
+      <c r="L19" s="25">
         <f t="shared" si="6"/>
         <v>0.53658536585365901</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <v>30</v>
       </c>
-      <c r="B20" s="10">
+      <c r="C20" s="10">
         <v>28.1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="D20" s="10">
         <v>24</v>
       </c>
-      <c r="D20" s="10">
+      <c r="E20" s="10">
         <v>24.8</v>
       </c>
-      <c r="E20" s="21">
+      <c r="F20" s="21">
         <f t="shared" si="1"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
         <v>0.88256227758007111</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="3"/>
         <v>0.14590747330960857</v>
       </c>
-      <c r="H20" s="26">
+      <c r="I20" s="26">
         <f t="shared" si="7"/>
         <v>14.590747330960857</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="10">
         <f t="shared" si="0"/>
         <v>0.11743772241992885</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <f t="shared" si="5"/>
         <v>11.743772241992884</v>
       </c>
-      <c r="K20" s="26">
+      <c r="L20" s="26">
         <f t="shared" si="6"/>
         <v>0.80487804878048774</v>
       </c>
@@ -1507,699 +1555,716 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
         <v>12.5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>7.6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E2" s="17">
-        <f>B2-D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <f>D2/B2</f>
+      <c r="F2" s="17">
+        <f>C2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2/C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <f>(B2-C2)/B2</f>
+      <c r="H2" s="5">
+        <f>(C2-D2)/C2</f>
         <v>0.22448979591836743</v>
       </c>
-      <c r="H2" s="24">
-        <f>G2*100</f>
+      <c r="I2" s="24">
+        <f>H2*100</f>
         <v>22.448979591836743</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I18" si="0">(B2-D2)/B2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <f>I2*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J18" si="0">(C2-E2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <f>J2*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>12.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>8.5</v>
       </c>
-      <c r="E3" s="18">
-        <f t="shared" ref="E3:E18" si="1">B3-D3</f>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F18" si="1">C3-E3</f>
         <v>1.3000000000000007</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F18" si="2">D3/B3</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G18" si="2">E3/C3</f>
         <v>0.86734693877551017</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G18" si="3">(B3-C3)/B3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H18" si="3">(C3-D3)/C3</f>
         <v>0.22448979591836743</v>
       </c>
-      <c r="H3" s="25">
-        <f t="shared" ref="H3:H18" si="4">G3*100</f>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I18" si="4">H3*100</f>
         <v>22.448979591836743</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>0.13265306122448986</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J18" si="5">I3*100</f>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K18" si="5">J3*100</f>
         <v>13.265306122448987</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>12.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>7.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>7.8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="18">
         <f t="shared" si="1"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <f t="shared" si="2"/>
         <v>0.79591836734693866</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="3"/>
         <v>0.22448979591836743</v>
       </c>
-      <c r="H4" s="26">
+      <c r="I4" s="26">
         <f t="shared" si="4"/>
         <v>22.448979591836743</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
         <v>0.20408163265306131</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <f t="shared" si="5"/>
         <v>20.408163265306133</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13">
         <v>14.8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="C5" s="15">
+      <c r="D5" s="15">
         <v>9.1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="E5" s="15">
         <v>12</v>
       </c>
-      <c r="E5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
-      <c r="H5" s="24">
+      <c r="I5" s="24">
         <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>14.8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>9.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="20">
+      <c r="F6" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
-      <c r="H6" s="25">
+      <c r="I6" s="25">
         <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>14.8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="C7" s="11">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="11">
         <v>9.1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>10</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <f t="shared" si="3"/>
         <v>0.2416666666666667</v>
       </c>
-      <c r="H7" s="26">
+      <c r="I7" s="26">
         <f t="shared" si="4"/>
         <v>24.166666666666671</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <v>25.2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="5">
         <v>22.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>17</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>22.5</v>
       </c>
-      <c r="E8" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="H8" s="24">
+      <c r="I8" s="24">
         <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>25.2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>22.5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>21.9</v>
       </c>
-      <c r="E9" s="20">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>0.60000000000000142</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>0.97333333333333327</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="H9" s="25">
+      <c r="I9" s="25">
         <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>2.6666666666666731E-2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <f t="shared" si="5"/>
         <v>2.6666666666666732</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>25.2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="C10" s="11">
         <v>22.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>20.9</v>
       </c>
-      <c r="E10" s="21">
+      <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>0.92888888888888888</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="3"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="H10" s="26">
+      <c r="I10" s="26">
         <f t="shared" si="4"/>
         <v>24.444444444444443</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>7.111111111111118E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <f t="shared" si="5"/>
         <v>7.1111111111111178</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>27.4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>20.7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>27.4</v>
       </c>
-      <c r="E11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="F11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
-      <c r="H11" s="24">
+      <c r="I11" s="24">
         <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>30</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>27.4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>20.7</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>26.1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>1.2999999999999972</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>0.95255474452554756</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
-      <c r="H12" s="25">
+      <c r="I12" s="25">
         <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>4.7445255474452455E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f t="shared" si="5"/>
         <v>4.7445255474452459</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>30</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>27.4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>20.7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>25.2</v>
       </c>
-      <c r="E13" s="20">
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>2.1999999999999993</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>0.91970802919708028</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
-      <c r="H13" s="25">
+      <c r="I13" s="25">
         <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>8.0291970802919679E-2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f t="shared" si="5"/>
         <v>8.0291970802919685</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>30</v>
       </c>
-      <c r="B14" s="10">
+      <c r="C14" s="10">
         <v>27.4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="D14" s="11">
         <v>20.7</v>
       </c>
-      <c r="D14" s="10">
+      <c r="E14" s="10">
         <v>24.1</v>
       </c>
-      <c r="E14" s="21">
+      <c r="F14" s="21">
         <f t="shared" si="1"/>
         <v>3.2999999999999972</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>0.87956204379562053</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
         <v>0.24452554744525545</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I14" s="26">
         <f t="shared" si="4"/>
         <v>24.452554744525546</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>0.12043795620437947</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f t="shared" si="5"/>
         <v>12.043795620437947</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7">
         <v>42.6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>29.9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
-      <c r="H15" s="25">
+      <c r="I15" s="25">
         <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>42.6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>29.9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>36.200000000000003</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>0.9095477386934675</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
-      <c r="H16" s="25">
+      <c r="I16" s="25">
         <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>9.0452261306532528E-2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <f t="shared" si="5"/>
         <v>9.0452261306532531</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>42.6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>29.9</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>35.1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>4.6999999999999957</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>0.88190954773869357</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
-      <c r="H17" s="25">
+      <c r="I17" s="25">
         <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>0.11809045226130643</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <f t="shared" si="5"/>
         <v>11.809045226130642</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>42.6</v>
       </c>
-      <c r="B18" s="10">
+      <c r="C18" s="10">
         <v>39.799999999999997</v>
       </c>
-      <c r="C18" s="10">
+      <c r="D18" s="10">
         <v>29.9</v>
       </c>
-      <c r="D18" s="10">
+      <c r="E18" s="10">
         <v>32.799999999999997</v>
       </c>
-      <c r="E18" s="21">
+      <c r="F18" s="21">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <f t="shared" si="2"/>
         <v>0.82412060301507539</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="3"/>
         <v>0.24874371859296482</v>
       </c>
-      <c r="H18" s="26">
+      <c r="I18" s="26">
         <f t="shared" si="4"/>
         <v>24.874371859296481</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <f t="shared" si="0"/>
         <v>0.17587939698492464</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <f t="shared" si="5"/>
         <v>17.587939698492463</v>
       </c>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73488F4F-2107-4EB8-ACBD-936F54BAABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A583D3-0ECD-451D-8AC2-573713CB0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,8 +688,7 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A583D3-0ECD-451D-8AC2-573713CB0827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB98E2A-0446-42C6-BE3A-15D5B65DBFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB98E2A-0446-42C6-BE3A-15D5B65DBFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6847F-59B1-4C18-88B7-B53EEBB0EE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
     <sheet name="20mm" sheetId="2" r:id="rId2"/>
+    <sheet name="40mm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Cut length</t>
   </si>
@@ -101,15 +102,34 @@
   <si>
     <t>40cm</t>
   </si>
+  <si>
+    <t>BPA ID (40mm)</t>
+  </si>
+  <si>
+    <t>25cm</t>
+  </si>
+  <si>
+    <t>15cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Min contraction length is measured at 500kpa due to leaks. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1556,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,4 +2292,556 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C12A74-AD6F-4A13-BFF1-649CA085888F}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="4">
+        <f>E2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f>(C2-D2)/C2</f>
+        <v>0.27826086956521734</v>
+      </c>
+      <c r="I2" s="24">
+        <f>H2*100</f>
+        <v>27.826086956521735</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J18" si="0">(C2-E2)/C2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <f>J2*100</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="7" t="e">
+        <f t="shared" ref="G3:G18" si="1">E3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="1" t="e">
+        <f t="shared" ref="H3:H18" si="2">(C3-D3)/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="25" t="e">
+        <f t="shared" ref="I3:I18" si="3">H3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="6" t="e">
+        <f t="shared" ref="K3:K18" si="4">J3*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27477477477477469</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="3"/>
+        <v>27.477477477477468</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>29.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27651515151515144</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="3"/>
+        <v>27.651515151515145</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6847F-59B1-4C18-88B7-B53EEBB0EE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0CAE7-CD56-48F6-B828-CF995D120EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,8 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1578,7 +1579,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C12A74-AD6F-4A13-BFF1-649CA085888F}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,6 +2311,7 @@
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0CAE7-CD56-48F6-B828-CF995D120EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD47100-B1AF-40C3-97BF-7514104642E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Cut length</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Note: Min contraction length is measured at 500kpa due to leaks. </t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1570,36 @@
       <c r="L20" s="26">
         <f t="shared" si="6"/>
         <v>0.80487804878048774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD47100-B1AF-40C3-97BF-7514104642E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272AD24-64C8-48F7-A3AB-0F13BA3E6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C12A74-AD6F-4A13-BFF1-649CA085888F}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272AD24-64C8-48F7-A3AB-0F13BA3E6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF938C4F-D029-4853-9103-83D0CF64A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,9 +716,11 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1612,7 +1614,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,9 +1624,8 @@
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2332,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C12A74-AD6F-4A13-BFF1-649CA085888F}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF938C4F-D029-4853-9103-83D0CF64A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB71F41A-B67A-4497-BE7A-E6B1637F3E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB71F41A-B67A-4497-BE7A-E6B1637F3E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97140BD4-4444-40DA-9807-09773B86FB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="4605" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97140BD4-4444-40DA-9807-09773B86FB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C37B7-F3A6-4BF6-B2B1-F3AFDAB85D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C37B7-F3A6-4BF6-B2B1-F3AFDAB85D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28770E43-7DB6-49E6-948B-8EDA6236DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28770E43-7DB6-49E6-948B-8EDA6236DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4DF4B0-B5EF-4FC0-9CB1-7B31F19E36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Cut length</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>relative strain</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,9 +1629,10 @@
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1662,8 +1666,11 @@
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1703,8 +1710,12 @@
         <f>J2*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>J2/H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>12.5</v>
       </c>
@@ -1741,8 +1752,12 @@
         <f t="shared" ref="K3:K18" si="5">J3*100</f>
         <v>13.265306122448987</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L18" si="6">J3/H3</f>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>12.5</v>
       </c>
@@ -1779,8 +1794,12 @@
         <f t="shared" si="5"/>
         <v>20.408163265306133</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>0.90909090909090917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1820,8 +1839,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>14.8</v>
       </c>
@@ -1858,8 +1881,12 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0.34482758620689646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>14.8</v>
       </c>
@@ -1896,8 +1923,12 @@
         <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.68965517241379293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1937,8 +1968,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>25.2</v>
       </c>
@@ -1975,8 +2010,12 @@
         <f t="shared" si="5"/>
         <v>2.6666666666666732</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.10909090909090936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>25.2</v>
       </c>
@@ -2013,8 +2052,12 @@
         <f t="shared" si="5"/>
         <v>7.1111111111111178</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>0.29090909090909123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2054,8 +2097,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>30</v>
       </c>
@@ -2092,8 +2139,12 @@
         <f t="shared" si="5"/>
         <v>4.7445255474452459</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>0.19402985074626827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>30</v>
       </c>
@@ -2130,8 +2181,12 @@
         <f t="shared" si="5"/>
         <v>8.0291970802919685</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>0.32835820895522377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>30</v>
       </c>
@@ -2168,8 +2223,12 @@
         <f t="shared" si="5"/>
         <v>12.043795620437947</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>0.49253731343283547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2209,8 +2268,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>42.6</v>
       </c>
@@ -2247,8 +2310,12 @@
         <f t="shared" si="5"/>
         <v>9.0452261306532531</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.36363636363636309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>42.6</v>
       </c>
@@ -2285,8 +2352,12 @@
         <f t="shared" si="5"/>
         <v>11.809045226130642</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.47474747474747436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>42.6</v>
       </c>
@@ -2322,6 +2393,10 @@
       <c r="K18" s="12">
         <f t="shared" si="5"/>
         <v>17.587939698492463</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.70707070707070718</v>
       </c>
     </row>
   </sheetData>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4DF4B0-B5EF-4FC0-9CB1-7B31F19E36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54173B86-6432-41FD-9F16-6357BDDBC528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Cut length</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>relative strain</t>
+  </si>
+  <si>
+    <t>1-relative strain</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,9 +1633,11 @@
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1669,8 +1674,11 @@
       <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1714,8 +1722,12 @@
         <f>J2/H2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>1-L2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>12.5</v>
       </c>
@@ -1756,8 +1768,12 @@
         <f t="shared" ref="L3:L18" si="6">J3/H3</f>
         <v>0.59090909090909094</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M18" si="7">1-L3</f>
+        <v>0.40909090909090906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>12.5</v>
       </c>
@@ -1798,8 +1814,12 @@
         <f t="shared" si="6"/>
         <v>0.90909090909090917</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1843,8 +1863,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>14.8</v>
       </c>
@@ -1885,8 +1909,12 @@
         <f t="shared" si="6"/>
         <v>0.34482758620689646</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>0.65517241379310354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>14.8</v>
       </c>
@@ -1927,8 +1955,12 @@
         <f t="shared" si="6"/>
         <v>0.68965517241379293</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>0.31034482758620707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1972,8 +2004,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>25.2</v>
       </c>
@@ -2014,8 +2050,12 @@
         <f t="shared" si="6"/>
         <v>0.10909090909090936</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>0.89090909090909065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>25.2</v>
       </c>
@@ -2056,8 +2096,12 @@
         <f t="shared" si="6"/>
         <v>0.29090909090909123</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>0.70909090909090877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2101,8 +2145,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>30</v>
       </c>
@@ -2143,8 +2191,12 @@
         <f t="shared" si="6"/>
         <v>0.19402985074626827</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>0.80597014925373167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>30</v>
       </c>
@@ -2185,8 +2237,12 @@
         <f t="shared" si="6"/>
         <v>0.32835820895522377</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>0.67164179104477628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>30</v>
       </c>
@@ -2227,8 +2283,12 @@
         <f t="shared" si="6"/>
         <v>0.49253731343283547</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>0.50746268656716453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2272,8 +2332,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>42.6</v>
       </c>
@@ -2314,8 +2378,12 @@
         <f t="shared" si="6"/>
         <v>0.36363636363636309</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>0.63636363636363691</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>42.6</v>
       </c>
@@ -2356,8 +2424,12 @@
         <f t="shared" si="6"/>
         <v>0.47474747474747436</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0.52525252525252564</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>42.6</v>
       </c>
@@ -2397,6 +2469,10 @@
       <c r="L18">
         <f t="shared" si="6"/>
         <v>0.70707070707070718</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>0.29292929292929282</v>
       </c>
     </row>
   </sheetData>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54173B86-6432-41FD-9F16-6357BDDBC528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65A4C5-B96F-4D27-AE94-53079A5F3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +393,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,19 +1674,19 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1679,7 +1697,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4">
@@ -1718,16 +1736,17 @@
         <f>J2*100</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="32">
         <f>J2/H2</f>
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="33">
         <f>1-L2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
       <c r="B3" s="7">
         <v>12.5</v>
       </c>
@@ -1764,16 +1783,17 @@
         <f t="shared" ref="K3:K18" si="5">J3*100</f>
         <v>13.265306122448987</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="35">
         <f t="shared" ref="L3:L18" si="6">J3/H3</f>
         <v>0.59090909090909094</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="36">
         <f t="shared" ref="M3:M18" si="7">1-L3</f>
         <v>0.40909090909090906</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
       <c r="B4" s="7">
         <v>12.5</v>
       </c>
@@ -1810,17 +1830,17 @@
         <f t="shared" si="5"/>
         <v>20.408163265306133</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="35">
         <f t="shared" si="6"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="36">
         <f t="shared" si="7"/>
         <v>9.0909090909090828E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="13">
@@ -1859,16 +1879,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="8">
         <v>14.8</v>
       </c>
@@ -1905,26 +1926,27 @@
         <f t="shared" si="5"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="35">
         <f t="shared" si="6"/>
         <v>0.34482758620689646</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="36">
         <f t="shared" si="7"/>
         <v>0.65517241379310354</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="A7" s="34"/>
+      <c r="B7" s="8">
         <v>14.8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <v>9.1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="21">
@@ -1951,32 +1973,32 @@
         <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="35">
         <f t="shared" si="6"/>
         <v>0.68965517241379293</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="36">
         <f t="shared" si="7"/>
         <v>0.31034482758620707</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>25.2</v>
       </c>
       <c r="C8" s="5">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="D8" s="5">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="14">
+        <v>22.8</v>
+      </c>
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1986,11 +2008,11 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="3"/>
-        <v>0.24444444444444444</v>
+        <v>0.25438596491228072</v>
       </c>
       <c r="I8" s="24">
         <f t="shared" si="4"/>
-        <v>24.444444444444443</v>
+        <v>25.438596491228072</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
@@ -2000,122 +2022,124 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="7">
         <v>25.2</v>
       </c>
-      <c r="C9" s="2">
-        <v>22.5</v>
+      <c r="C9" s="1">
+        <v>22.8</v>
       </c>
       <c r="D9" s="1">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="29">
         <v>21.9</v>
       </c>
-      <c r="F9" s="20">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000142</v>
+      <c r="F9" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000213</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>0.97333333333333327</v>
+        <v>0.96052631578947356</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>0.24444444444444444</v>
+        <v>0.25438596491228072</v>
       </c>
       <c r="I9" s="25">
         <f t="shared" si="4"/>
-        <v>24.444444444444443</v>
+        <v>25.438596491228072</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>2.6666666666666731E-2</v>
+        <v>3.9473684210526411E-2</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="5"/>
-        <v>2.6666666666666732</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
-        <v>0.10909090909090936</v>
-      </c>
-      <c r="M9">
+        <v>3.9473684210526412</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="6"/>
+        <v>0.15517241379310381</v>
+      </c>
+      <c r="M9" s="36">
         <f t="shared" si="7"/>
-        <v>0.89090909090909065</v>
+        <v>0.84482758620689613</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="9">
         <v>25.2</v>
       </c>
-      <c r="C10" s="11">
-        <v>22.5</v>
+      <c r="C10" s="10">
+        <v>22.8</v>
       </c>
       <c r="D10" s="10">
         <v>17</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="30">
         <v>20.9</v>
       </c>
-      <c r="F10" s="21">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000014</v>
+      <c r="F10" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000021</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
-        <v>0.92888888888888888</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>0.24444444444444444</v>
+        <v>0.25438596491228072</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="4"/>
-        <v>24.444444444444443</v>
+        <v>25.438596491228072</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>7.111111111111118E-2</v>
+        <v>8.3333333333333426E-2</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>7.1111111111111178</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="6"/>
-        <v>0.29090909090909123</v>
-      </c>
-      <c r="M10">
+        <v>8.3333333333333428</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="6"/>
+        <v>0.32758620689655205</v>
+      </c>
+      <c r="M10" s="36">
         <f t="shared" si="7"/>
-        <v>0.70909090909090877</v>
+        <v>0.67241379310344795</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="7">
         <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D11" s="2">
         <v>20.7</v>
       </c>
       <c r="E11" s="1">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="1"/>
@@ -2127,11 +2151,11 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>0.24452554744525545</v>
+        <v>0.24727272727272731</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="4"/>
-        <v>24.452554744525546</v>
+        <v>24.72727272727273</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
@@ -2141,21 +2165,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="7">
         <v>30</v>
       </c>
       <c r="C12" s="2">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D12" s="2">
         <v>20.7</v>
@@ -2165,43 +2190,44 @@
       </c>
       <c r="F12" s="20">
         <f t="shared" si="1"/>
-        <v>1.2999999999999972</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>0.95255474452554756</v>
+        <v>0.9490909090909091</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="3"/>
-        <v>0.24452554744525545</v>
+        <v>0.24727272727272731</v>
       </c>
       <c r="I12" s="25">
         <f t="shared" si="4"/>
-        <v>24.452554744525546</v>
+        <v>24.72727272727273</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>4.7445255474452455E-2</v>
+        <v>5.0909090909090855E-2</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="5"/>
-        <v>4.7445255474452459</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>0.19402985074626827</v>
-      </c>
-      <c r="M12">
+        <v>5.0909090909090855</v>
+      </c>
+      <c r="L12" s="35">
+        <f t="shared" si="6"/>
+        <v>0.20588235294117621</v>
+      </c>
+      <c r="M12" s="36">
         <f t="shared" si="7"/>
-        <v>0.80597014925373167</v>
+        <v>0.79411764705882382</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
       <c r="B13" s="7">
         <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D13" s="2">
         <v>20.7</v>
@@ -2211,43 +2237,44 @@
       </c>
       <c r="F13" s="20">
         <f t="shared" si="1"/>
-        <v>2.1999999999999993</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>0.91970802919708028</v>
+        <v>0.91636363636363638</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="3"/>
-        <v>0.24452554744525545</v>
+        <v>0.24727272727272731</v>
       </c>
       <c r="I13" s="25">
         <f t="shared" si="4"/>
-        <v>24.452554744525546</v>
+        <v>24.72727272727273</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>8.0291970802919679E-2</v>
+        <v>8.3636363636363661E-2</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="5"/>
-        <v>8.0291970802919685</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>0.32835820895522377</v>
-      </c>
-      <c r="M13">
+        <v>8.3636363636363669</v>
+      </c>
+      <c r="L13" s="35">
+        <f t="shared" si="6"/>
+        <v>0.33823529411764713</v>
+      </c>
+      <c r="M13" s="36">
         <f t="shared" si="7"/>
-        <v>0.67164179104477628</v>
+        <v>0.66176470588235281</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
       <c r="B14" s="9">
         <v>30</v>
       </c>
       <c r="C14" s="10">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D14" s="11">
         <v>20.7</v>
@@ -2257,52 +2284,52 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="1"/>
-        <v>3.2999999999999972</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>0.87956204379562053</v>
+        <v>0.87636363636363646</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="3"/>
-        <v>0.24452554744525545</v>
+        <v>0.24727272727272731</v>
       </c>
       <c r="I14" s="26">
         <f t="shared" si="4"/>
-        <v>24.452554744525546</v>
+        <v>24.72727272727273</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12043795620437947</v>
+        <v>0.12363636363636359</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="5"/>
-        <v>12.043795620437947</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>0.49253731343283547</v>
-      </c>
-      <c r="M14">
+        <v>12.363636363636358</v>
+      </c>
+      <c r="L14" s="35">
+        <f t="shared" si="6"/>
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="M14" s="36">
         <f t="shared" si="7"/>
-        <v>0.50746268656716453</v>
+        <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="7">
         <v>42.6</v>
       </c>
       <c r="C15" s="1">
-        <v>39.799999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D15" s="1">
         <v>29.9</v>
       </c>
       <c r="E15" s="1">
-        <v>39.799999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="1"/>
@@ -2314,11 +2341,11 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="3"/>
-        <v>0.24874371859296482</v>
+        <v>0.24685138539042831</v>
       </c>
       <c r="I15" s="25">
         <f t="shared" si="4"/>
-        <v>24.874371859296481</v>
+        <v>24.685138539042832</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
@@ -2328,21 +2355,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
       <c r="B16" s="7">
         <v>42.6</v>
       </c>
       <c r="C16" s="2">
-        <v>39.799999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D16" s="2">
         <v>29.9</v>
@@ -2352,43 +2380,44 @@
       </c>
       <c r="F16" s="20">
         <f t="shared" si="1"/>
-        <v>3.5999999999999943</v>
+        <v>3.5</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>0.9095477386934675</v>
+        <v>0.91183879093198994</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="3"/>
-        <v>0.24874371859296482</v>
+        <v>0.24685138539042831</v>
       </c>
       <c r="I16" s="25">
         <f t="shared" si="4"/>
-        <v>24.874371859296481</v>
+        <v>24.685138539042832</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>9.0452261306532528E-2</v>
+        <v>8.8161209068010074E-2</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="5"/>
-        <v>9.0452261306532531</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="6"/>
-        <v>0.36363636363636309</v>
-      </c>
-      <c r="M16">
+        <v>8.8161209068010074</v>
+      </c>
+      <c r="L16" s="35">
+        <f t="shared" si="6"/>
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="M16" s="36">
         <f t="shared" si="7"/>
-        <v>0.63636363636363691</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.64285714285714302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="7">
         <v>42.6</v>
       </c>
       <c r="C17" s="2">
-        <v>39.799999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D17" s="2">
         <v>29.9</v>
@@ -2398,43 +2427,44 @@
       </c>
       <c r="F17" s="20">
         <f t="shared" si="1"/>
-        <v>4.6999999999999957</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>0.88190954773869357</v>
+        <v>0.88413098236775811</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="3"/>
-        <v>0.24874371859296482</v>
+        <v>0.24685138539042831</v>
       </c>
       <c r="I17" s="25">
         <f t="shared" si="4"/>
-        <v>24.874371859296481</v>
+        <v>24.685138539042832</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11809045226130643</v>
+        <v>0.11586901763224185</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="5"/>
-        <v>11.809045226130642</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>0.47474747474747436</v>
-      </c>
-      <c r="M17">
+        <v>11.586901763224185</v>
+      </c>
+      <c r="L17" s="35">
+        <f t="shared" si="6"/>
+        <v>0.46938775510204078</v>
+      </c>
+      <c r="M17" s="36">
         <f t="shared" si="7"/>
-        <v>0.52525252525252564</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
       <c r="B18" s="9">
         <v>42.6</v>
       </c>
       <c r="C18" s="10">
-        <v>39.799999999999997</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D18" s="10">
         <v>29.9</v>
@@ -2444,35 +2474,35 @@
       </c>
       <c r="F18" s="21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6.9000000000000057</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="2"/>
-        <v>0.82412060301507539</v>
+        <v>0.82619647355163717</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="3"/>
-        <v>0.24874371859296482</v>
+        <v>0.24685138539042831</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="4"/>
-        <v>24.874371859296481</v>
+        <v>24.685138539042832</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>0.17587939698492464</v>
+        <v>0.17380352644836286</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="5"/>
-        <v>17.587939698492463</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>0.70707070707070718</v>
-      </c>
-      <c r="M18">
+        <v>17.380352644836286</v>
+      </c>
+      <c r="L18" s="38">
+        <f t="shared" si="6"/>
+        <v>0.70408163265306156</v>
+      </c>
+      <c r="M18" s="39">
         <f t="shared" si="7"/>
-        <v>0.29292929292929282</v>
+        <v>0.29591836734693844</v>
       </c>
     </row>
   </sheetData>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65A4C5-B96F-4D27-AE94-53079A5F3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581125C7-AE69-4B50-8A6C-E0358C2F01D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -1638,12 +1638,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>

--- a/DataCollection/BPAparameters_normalized.xlsx
+++ b/DataCollection/BPAparameters_normalized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory_2\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581125C7-AE69-4B50-8A6C-E0358C2F01D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DA468E-6361-4239-9EFF-800AE49BF631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A3A5EB0-BE78-4EAA-84C9-DD014A3A2FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="10mm" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F760E8-92D5-4163-ADDE-07026F3D9A53}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9E6C7-C8D1-42F7-A9AB-FC4C9B32771D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
